--- a/3D Printer Design/QBotBOM.xlsx
+++ b/3D Printer Design/QBotBOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Dropbox\CMU\Activities\Roboclub\Q Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Dropbox\CMU\Activities\Roboclub\Q Tutorial\QBot\3D Printer Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Snapdragon Bot Bill of Materials</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Moto G</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +325,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,12 +357,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -630,831 +646,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">B3*$C$1</f>
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">C3*$D$1</f>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8.24</v>
       </c>
       <c r="G3" s="2">
         <v>8.24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="I3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1.53</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G13" si="1">C4 *F4</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H13" si="1">D4 *G4</f>
         <v>9.18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0.42</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1.39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>8.34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>25</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>15.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>48</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C17" si="2">B10*$C$1</f>
+      <c r="D10">
+        <f t="shared" ref="D10:D17" si="2">C10*$D$1</f>
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>2.7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>32.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>0.1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>0.05</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>0.19</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>2.2800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
       <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4.66</v>
       </c>
       <c r="G14" s="2">
         <v>4.66</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="I14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
       <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.11</v>
       </c>
       <c r="G15" s="2">
         <v>3.11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="I15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11.48</v>
       </c>
       <c r="G16" s="2">
         <v>11.48</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2">
+        <v>11.48</v>
+      </c>
+      <c r="I16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>7.33</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f>7.33 * 3</f>
         <v>21.990000000000002</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>2.17</v>
       </c>
-      <c r="G18" s="2">
-        <f>C18 *F18</f>
+      <c r="H18" s="2">
+        <f>D18 *G18</f>
         <v>2.17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:C30" si="3">B19*$C$1</f>
+      <c r="D19">
+        <f t="shared" ref="D19:D30" si="3">C19*$D$1</f>
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.25</v>
       </c>
       <c r="G19" s="2">
         <v>5.25</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="I19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.48</v>
       </c>
       <c r="G20" s="2">
         <v>1.48</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="I20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5.31</v>
       </c>
       <c r="G21" s="2">
         <v>5.31</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7.68</v>
       </c>
       <c r="G22" s="2">
         <v>7.68</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="I22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F23" s="2">
-        <v>11.45</v>
       </c>
       <c r="G23" s="2">
         <v>11.45</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="I23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5.42</v>
       </c>
       <c r="G24" s="2">
         <v>5.42</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="I24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>100</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:G30" si="4">C25 *F25</f>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25:H30" si="4">D25 *G25</f>
         <v>600</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>15</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>10</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>0.7</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="4"/>
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>1.75</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="2">
-        <f>SUM(G3:G30)</f>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <f>SUM(H3:H30)</f>
         <v>1270.3600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H30">
-    <sortCondition ref="D3:D30"/>
+  <sortState ref="B3:I30">
+    <sortCondition ref="E3:E30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E28" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8" location="91772a085/=sda7o1"/>
-    <hyperlink ref="E15" r:id="rId9" location="90760a009/=sjt7h4"/>
-    <hyperlink ref="E16" r:id="rId10" location="91251a149/=sd9q3y"/>
-    <hyperlink ref="E17" r:id="rId11" location="94639a068/=sjs9om"/>
-    <hyperlink ref="E11" r:id="rId12"/>
-    <hyperlink ref="E18" r:id="rId13" location="8890k122/=su430w"/>
-    <hyperlink ref="E4" r:id="rId14"/>
-    <hyperlink ref="E29" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16" location="90126a501/=sda9xs"/>
-    <hyperlink ref="E13" r:id="rId17"/>
-    <hyperlink ref="E22" r:id="rId18" location="91772a204/=sjs8kq"/>
-    <hyperlink ref="E23" r:id="rId19" location="99461a615/=sjtall"/>
-    <hyperlink ref="E24" r:id="rId20" location="91771a113/=ske8x2"/>
-    <hyperlink ref="E19" r:id="rId21" location="93135a276/=sjtpg7"/>
-    <hyperlink ref="E30" r:id="rId22"/>
-    <hyperlink ref="E21" r:id="rId23" location="91251a115/=sd9pat"/>
+    <hyperlink ref="F26" r:id="rId1"/>
+    <hyperlink ref="F27" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F28" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId8" location="91772a085/=sda7o1"/>
+    <hyperlink ref="F15" r:id="rId9" location="90760a009/=sjt7h4"/>
+    <hyperlink ref="F16" r:id="rId10" location="91251a149/=sd9q3y"/>
+    <hyperlink ref="F17" r:id="rId11" location="94639a068/=sjs9om"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13" location="8890k122/=su430w"/>
+    <hyperlink ref="F4" r:id="rId14"/>
+    <hyperlink ref="F29" r:id="rId15"/>
+    <hyperlink ref="F20" r:id="rId16" location="90126a501/=sda9xs"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="F22" r:id="rId18" location="91772a204/=sjs8kq"/>
+    <hyperlink ref="F23" r:id="rId19" location="99461a615/=sjtall"/>
+    <hyperlink ref="F24" r:id="rId20" location="91771a113/=ske8x2"/>
+    <hyperlink ref="F19" r:id="rId21" location="93135a276/=sjtpg7"/>
+    <hyperlink ref="F30" r:id="rId22"/>
+    <hyperlink ref="F21" r:id="rId23" location="91251a115/=sd9pat"/>
+    <hyperlink ref="F5" r:id="rId24"/>
+    <hyperlink ref="F6" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>